--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -836,7 +836,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1487,9 @@
       <c r="G11" s="12">
         <v>2</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1529,7 +1531,9 @@
       <c r="G12" s="12">
         <v>6</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>6</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1571,7 +1575,9 @@
       <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>4</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1613,7 +1619,9 @@
       <c r="G14" s="12">
         <v>2</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1655,7 +1663,9 @@
       <c r="G15" s="12">
         <v>8</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>8</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1697,7 +1707,9 @@
       <c r="G16" s="12">
         <v>5</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>5</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1739,7 +1751,9 @@
       <c r="G17" s="12">
         <v>3</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>3</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1781,7 +1795,9 @@
       <c r="G18" s="12">
         <v>5</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>5</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2132,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" ref="D29:R29" si="1">SUM(D2:D27)</f>
+        <f t="shared" ref="D29:Q29" si="1">SUM(D2:D27)</f>
         <v>56</v>
       </c>
       <c r="E29" s="14">
@@ -2149,7 +2165,7 @@
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="1"/>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver\homedir$\raoul\Desktop\git\Developing-a-cross-platform-application-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Documents\HR INF\INF 1L-1\git\Developing-a-cross-platform-application-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Projectnaam</t>
   </si>
@@ -95,12 +95,15 @@
   <si>
     <t>Day 13 - remaining hours</t>
   </si>
+  <si>
+    <t>Maak computer besturend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -110,16 +113,19 @@
       <sz val="12"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC0504D"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9BBB59"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -136,6 +142,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF4F81BD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,6 +213,14 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,46 +282,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.692307692307693</c:v>
+                  <c:v>56.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.384615384615387</c:v>
+                  <c:v>51.615384615384613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.07692307692308</c:v>
+                  <c:v>46.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.769230769230774</c:v>
+                  <c:v>42.230769230769226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.461538461538467</c:v>
+                  <c:v>37.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.15384615384616</c:v>
+                  <c:v>32.84615384615384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.846153846153854</c:v>
+                  <c:v>28.153846153846146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.538461538461547</c:v>
+                  <c:v>23.461538461538453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.230769230769241</c:v>
+                  <c:v>18.769230769230759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.923076923076934</c:v>
+                  <c:v>14.076923076923066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6153846153846274</c:v>
+                  <c:v>9.3846153846153726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3076923076923199</c:v>
+                  <c:v>4.6923076923076801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2434497875801753E-14</c:v>
+                  <c:v>-1.2434497875801753E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,25 +364,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -835,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1490,15 +1510,33 @@
       <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
       <c r="R11" s="12"/>
       <c r="S11" s="6"/>
       <c r="T11" s="3"/>
@@ -1534,15 +1572,33 @@
       <c r="H12" s="12">
         <v>6</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="I12" s="12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
       <c r="R12" s="12"/>
       <c r="S12" s="6"/>
       <c r="T12" s="3"/>
@@ -1578,15 +1634,33 @@
       <c r="H13" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="I13" s="12">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
       <c r="R13" s="12"/>
       <c r="S13" s="6"/>
       <c r="T13" s="3"/>
@@ -1622,15 +1696,33 @@
       <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0</v>
+      </c>
       <c r="R14" s="12"/>
       <c r="S14" s="6"/>
       <c r="T14" s="3"/>
@@ -1666,15 +1758,33 @@
       <c r="H15" s="12">
         <v>8</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
       <c r="R15" s="12"/>
       <c r="S15" s="6"/>
       <c r="T15" s="3"/>
@@ -1710,15 +1820,33 @@
       <c r="H16" s="12">
         <v>5</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="I16" s="12">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
       <c r="R16" s="12"/>
       <c r="S16" s="6"/>
       <c r="T16" s="3"/>
@@ -1734,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
@@ -1754,15 +1882,33 @@
       <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="I17" s="12">
+        <v>3</v>
+      </c>
+      <c r="J17" s="12">
+        <v>3</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
       <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -1773,79 +1919,129 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19">
+        <v>5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>5</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+    </row>
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="19">
         <v>5</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="19">
         <v>5</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="19">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="19">
         <v>5</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="19">
         <v>5</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="I19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2078,59 +2274,59 @@
       </c>
       <c r="D28" s="14">
         <f>SUM(D2:D27)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E28" s="14">
         <f>(D28-$D$28/13)</f>
-        <v>51.692307692307693</v>
+        <v>56.307692307692307</v>
       </c>
       <c r="F28" s="14">
         <f>(E28-$D$28/13)</f>
-        <v>47.384615384615387</v>
+        <v>51.615384615384613</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" ref="G28:Q28" si="0">(F28-$D$28/13)</f>
-        <v>43.07692307692308</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="0"/>
-        <v>38.769230769230774</v>
+        <v>42.230769230769226</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="0"/>
-        <v>34.461538461538467</v>
+        <v>37.538461538461533</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="0"/>
-        <v>30.15384615384616</v>
+        <v>32.84615384615384</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="0"/>
-        <v>25.846153846153854</v>
+        <v>28.153846153846146</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="0"/>
-        <v>21.538461538461547</v>
+        <v>23.461538461538453</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="0"/>
-        <v>17.230769230769241</v>
+        <v>18.769230769230759</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="0"/>
-        <v>12.923076923076934</v>
+        <v>14.076923076923066</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="0"/>
-        <v>8.6153846153846274</v>
+        <v>9.3846153846153726</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="0"/>
-        <v>4.3076923076923199</v>
+        <v>4.6923076923076801</v>
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="0"/>
-        <v>1.2434497875801753E-14</v>
+        <v>-1.2434497875801753E-14</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="4"/>
@@ -2149,31 +2345,31 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" ref="D29:Q29" si="1">SUM(D2:D27)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E29" s="14">
         <f>SUM(E2:E27)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="1"/>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Projectnaam</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Maak computer besturend</t>
+  </si>
+  <si>
+    <t>Applicatie op 2 platvormen</t>
+  </si>
+  <si>
+    <t>De aplicatie draait op een desktop</t>
+  </si>
+  <si>
+    <t>Maak Adapter</t>
   </si>
 </sst>
 </file>
@@ -282,46 +291,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.307692307692307</c:v>
+                  <c:v>83.07692307692308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.615384615384613</c:v>
+                  <c:v>76.15384615384616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.92307692307692</c:v>
+                  <c:v>69.230769230769241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.230769230769226</c:v>
+                  <c:v>62.307692307692321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.538461538461533</c:v>
+                  <c:v>55.384615384615401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.84615384615384</c:v>
+                  <c:v>48.461538461538481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.153846153846146</c:v>
+                  <c:v>41.538461538461561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.461538461538453</c:v>
+                  <c:v>34.615384615384642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.769230769230759</c:v>
+                  <c:v>27.692307692307718</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.076923076923066</c:v>
+                  <c:v>20.769230769230795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3846153846153726</c:v>
+                  <c:v>13.846153846153872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6923076923076801</c:v>
+                  <c:v>6.9230769230769482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>2.4868995751603507E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,28 +373,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2043,95 +2052,191 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="18">
+        <v>7</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="19">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>12</v>
+      </c>
+      <c r="F20" s="19">
+        <v>12</v>
+      </c>
+      <c r="G20" s="19">
+        <v>12</v>
+      </c>
+      <c r="H20" s="19">
+        <v>12</v>
+      </c>
+      <c r="I20" s="19">
+        <v>12</v>
+      </c>
+      <c r="J20" s="19">
+        <v>10</v>
+      </c>
+      <c r="K20" s="19">
+        <v>12</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+    </row>
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="18">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="19">
         <v>5</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="E21" s="19">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19">
+        <v>5</v>
+      </c>
+      <c r="H21" s="19">
+        <v>5</v>
+      </c>
+      <c r="I21" s="19">
+        <v>5</v>
+      </c>
+      <c r="J21" s="19">
+        <v>5</v>
+      </c>
+      <c r="K21" s="19">
+        <v>5</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="18">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="19">
+        <v>12</v>
+      </c>
+      <c r="E22" s="19">
+        <v>12</v>
+      </c>
+      <c r="F22" s="19">
+        <v>12</v>
+      </c>
+      <c r="G22" s="19">
+        <v>12</v>
+      </c>
+      <c r="H22" s="19">
+        <v>12</v>
+      </c>
+      <c r="I22" s="19">
+        <v>12</v>
+      </c>
+      <c r="J22" s="19">
+        <v>12</v>
+      </c>
+      <c r="K22" s="19">
+        <v>12</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -2274,59 +2379,59 @@
       </c>
       <c r="D28" s="14">
         <f>SUM(D2:D27)</f>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E28" s="14">
         <f>(D28-$D$28/13)</f>
-        <v>56.307692307692307</v>
+        <v>83.07692307692308</v>
       </c>
       <c r="F28" s="14">
         <f>(E28-$D$28/13)</f>
-        <v>51.615384615384613</v>
+        <v>76.15384615384616</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" ref="G28:Q28" si="0">(F28-$D$28/13)</f>
-        <v>46.92307692307692</v>
+        <v>69.230769230769241</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="0"/>
-        <v>42.230769230769226</v>
+        <v>62.307692307692321</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="0"/>
-        <v>37.538461538461533</v>
+        <v>55.384615384615401</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="0"/>
-        <v>32.84615384615384</v>
+        <v>48.461538461538481</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="0"/>
-        <v>28.153846153846146</v>
+        <v>41.538461538461561</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="0"/>
-        <v>23.461538461538453</v>
+        <v>34.615384615384642</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="0"/>
-        <v>18.769230769230759</v>
+        <v>27.692307692307718</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="0"/>
-        <v>14.076923076923066</v>
+        <v>20.769230769230795</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="0"/>
-        <v>9.3846153846153726</v>
+        <v>13.846153846153872</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="0"/>
-        <v>4.6923076923076801</v>
+        <v>6.9230769230769482</v>
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="0"/>
-        <v>-1.2434497875801753E-14</v>
+        <v>2.4868995751603507E-14</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="4"/>
@@ -2345,35 +2450,35 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" ref="D29:Q29" si="1">SUM(D2:D27)</f>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E29" s="14">
         <f>SUM(E2:E27)</f>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L29" s="14">
         <f t="shared" si="1"/>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Documents\HR INF\INF 1L-1\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver\homedir$\raoul\Desktop\Developing-a-cross-platform-application-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,10 +395,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -859,9 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2128,7 +2126,9 @@
       <c r="M23" s="2">
         <v>3</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <v>3</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2182,7 +2182,9 @@
       <c r="M24" s="2">
         <v>5</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2236,7 +2238,9 @@
       <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2350,9 +2354,11 @@
         <v>3</v>
       </c>
       <c r="M27" s="2">
-        <v>3</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2404,9 +2410,11 @@
         <v>4</v>
       </c>
       <c r="M28" s="2">
-        <v>4</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2458,12 +2466,20 @@
         <v>2</v>
       </c>
       <c r="M29" s="2">
-        <v>2</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2596,11 +2612,11 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="1"/>
